--- a/2023-Spring.PlanningWorksheet.xlsx
+++ b/2023-Spring.PlanningWorksheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbrauda\Documents\2023SpringNetworkScripting5Fridays\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dasingle\Downloads\2023SpringNetworkScripting5Fridays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEBE0716-5020-40B7-BDCC-223BA66D2A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EC6402-F80C-42D4-8C24-495F4258B7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="1035" windowWidth="21345" windowHeight="14190" xr2:uid="{F80757FD-8513-4619-A383-05D73AA04D66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F80757FD-8513-4619-A383-05D73AA04D66}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -1019,8 +1019,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFC5727-2FED-427C-A12B-8A170C9AB3D6}">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
